--- a/AgriMonitor/target/classes/static/excel/刚察县规模养殖场基本统计表.xlsx
+++ b/AgriMonitor/target/classes/static/excel/刚察县规模养殖场基本统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>养殖场名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>乡镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙柳河镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +482,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,9 +510,7 @@
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="10"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -551,6 +545,11 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"沙柳河镇,哈尔盖镇,伊克乌兰乡,泉吉乡,吉尔孟乡"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/AgriMonitor/target/classes/static/excel/刚察县规模养殖场基本统计表.xlsx
+++ b/AgriMonitor/target/classes/static/excel/刚察县规模养殖场基本统计表.xlsx
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乡镇</t>
+    <t>所在乡镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,9 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -169,14 +166,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,75 +476,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"沙柳河镇,哈尔盖镇,伊克乌兰乡,泉吉乡,吉尔孟乡"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576">
+      <formula1>"沙柳河镇,哈尔盖镇,伊克乌兰乡,泉吉乡,吉尔孟乡,黄玉农场"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
